--- a/要求分析/非機能要求一覧.xlsx
+++ b/要求分析/非機能要求一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB18A486-3978-4968-93ED-61F96698AC3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06213087-E1AA-45B8-8D53-B76ECE855018}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -431,6 +429,22 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データが増加したときのため、検索時間を短縮する</t>
+    <rPh sb="4" eb="6">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タンシュク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -721,6 +735,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,9 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1116,8 +1130,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1516,21 +1530,21 @@
       <c r="C2" s="2"/>
     </row>
     <row r="5" spans="2:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1620,7 +1634,9 @@
       <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1654,7 +1670,7 @@
       <c r="C21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="26" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="8"/>
@@ -2138,10 +2154,10 @@
       <c r="C2" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2151,11 +2167,11 @@
     </row>
     <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="23"/>
       <c r="F7" s="4" t="s">
         <v>4</v>
@@ -2310,12 +2326,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2485,6 +2495,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
@@ -2494,15 +2510,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1C1027-CEFA-4AD3-8FFD-CE8AA26AEFED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2518,4 +2525,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/要求分析/非機能要求一覧.xlsx
+++ b/要求分析/非機能要求一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06213087-E1AA-45B8-8D53-B76ECE855018}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2154002B-4765-4CCD-8D0B-FB850FBF774A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,19 +420,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>エラーを減らし品質を高める</t>
-    <rPh sb="4" eb="5">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒンシツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>データが増加したときのため、検索時間を短縮する</t>
     <rPh sb="4" eb="6">
       <t>ゾウカ</t>
@@ -445,6 +432,22 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>タンシュク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エラーになりうる記述を減らし品質を高める</t>
+    <rPh sb="8" eb="10">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1131,7 +1134,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1635,7 +1638,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -1681,7 +1684,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="12"/>
     </row>
@@ -2326,6 +2329,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2495,12 +2504,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
@@ -2510,6 +2513,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1C1027-CEFA-4AD3-8FFD-CE8AA26AEFED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2525,13 +2537,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/要求分析/非機能要求一覧.xlsx
+++ b/要求分析/非機能要求一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2154002B-4765-4CCD-8D0B-FB850FBF774A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE9343D-FDE7-439F-8B07-905CE46527B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -391,35 +391,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>メニュー画面を表示して、機能の使いやすいシステムにする</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>拡張機能の開発をしやすくする</t>
-    <rPh sb="0" eb="2">
-      <t>カクチョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイハツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>データが増加したときのため、検索時間を短縮する</t>
     <rPh sb="4" eb="6">
       <t>ゾウカ</t>
@@ -448,6 +419,22 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーごとのメニュー画面を表示して、機能の使いやすいシステムにする</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -661,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -737,9 +724,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1134,7 +1118,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1533,21 +1517,21 @@
       <c r="C2" s="2"/>
     </row>
     <row r="5" spans="2:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1602,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -1638,7 +1622,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -1673,7 +1657,7 @@
       <c r="C21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="8"/>
@@ -1682,9 +1666,6 @@
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="E22" s="12"/>
     </row>
@@ -2157,10 +2138,10 @@
       <c r="C2" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2170,11 +2151,11 @@
     </row>
     <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="23"/>
       <c r="F7" s="4" t="s">
         <v>4</v>
@@ -2329,12 +2310,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2504,6 +2479,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
@@ -2513,15 +2494,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1C1027-CEFA-4AD3-8FFD-CE8AA26AEFED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2537,4 +2509,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>